--- a/biology/Zoologie/Jemadia_sosia/Jemadia_sosia.xlsx
+++ b/biology/Zoologie/Jemadia_sosia/Jemadia_sosia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jemadia sosia est une espèce de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jemadia sosia a été nommé par Paul Mabille en 1878 sous le nom initial de Pyrrhopyga sosia[1].
-Nom vernaculaire
-Jemadia sosia se nomme Sosia Skipper en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia sosia a été nommé par Paul Mabille en 1878 sous le nom initial de Pyrrhopyga sosia.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia sosia se nomme Sosia Skipper en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jemadia_sosia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_sosia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jemadia sosia est un papillon au corps trapu et au thorax marron rayé  en long de bandes de poils bleu clair. 
 Les ailes sont de couleur bleu ardoise foncé marquées aux ailes antérieures de plages blanches avec une ligne submarginale bleu clair métallisé et une autre ligne bleu clair métallisé proche de la partie basale, qui, aux ailes antérieures se continue le long du bord interne.
@@ -553,36 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jemadia_sosia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jemadia_sosia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -607,14 +628,87 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jemadia sosia est présent en Colombie, au Venezuela, en Équateur au Pérou, en Bolivie, au Brésil[1],[2].
-Biotope
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia sosia est présent en Colombie, au Venezuela, en Équateur au Pérou, en Bolivie, au Brésil,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jemadia_sosia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_sosia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Jemadia sosia, sur Wikimedia CommonsJemadia sosia, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jemadia_sosia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_sosia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
